--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/OREGON_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/OREGON_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1415"/>
+  <dimension ref="A1:D1409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -599,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="18">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C28">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C35">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C49">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C54">
@@ -1142,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="D58">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="59">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C78">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C80">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C88">
@@ -1543,7 +1543,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C89">
@@ -1826,7 +1826,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C110">
@@ -1852,7 +1852,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1909,7 +1909,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C116">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C138">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C141">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C146">
@@ -2317,7 +2317,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C147">
@@ -2434,13 +2434,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C156">
@@ -2479,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C159">
@@ -2492,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C160">
@@ -2505,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C161">
@@ -2583,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C167">
@@ -2648,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C172">
@@ -2765,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C181">
@@ -2830,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C186">
@@ -2973,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C197">
@@ -3090,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C206">
@@ -3103,20 +3102,20 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C207">
         <v>15</v>
       </c>
       <c r="D207">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C208">
@@ -3129,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C209">
@@ -3142,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3233,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C217">
@@ -3350,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C226">
@@ -3383,7 +3382,7 @@
         <v>15</v>
       </c>
       <c r="D228">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="229">
@@ -3428,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C232">
@@ -3441,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C233">
@@ -3454,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C234">
@@ -3467,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C235">
@@ -3589,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C244">
@@ -3693,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C252">
@@ -3745,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C256">
@@ -3836,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C263">
@@ -3888,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C267">
@@ -3914,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C269">
@@ -3940,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C271">
@@ -3953,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C272">
@@ -3979,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C274">
@@ -4031,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C278">
@@ -4101,7 +4100,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C283">
@@ -4140,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C286">
@@ -4153,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C287">
@@ -4192,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C290">
@@ -4212,13 +4211,13 @@
         <v>15</v>
       </c>
       <c r="D291">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C292">
@@ -4231,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C293">
@@ -4257,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C295">
@@ -4270,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C296">
@@ -4283,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C297">
@@ -4296,14 +4295,14 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C298">
         <v>15</v>
       </c>
       <c r="D298">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="299">
@@ -4361,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C303">
@@ -4374,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C304">
@@ -4426,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C308">
@@ -4439,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C309">
@@ -4517,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C315">
@@ -4530,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C316">
@@ -4556,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C318">
@@ -4595,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C321">
@@ -4634,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C324">
@@ -4732,7 +4731,7 @@
         <v>15</v>
       </c>
       <c r="D331">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="332">
@@ -4790,14 +4789,14 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C336">
         <v>15</v>
       </c>
       <c r="D336">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="337">
@@ -4816,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C338">
@@ -4842,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C340">
@@ -4868,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C342">
@@ -4907,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C345">
@@ -4920,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C346">
@@ -4992,7 +4991,7 @@
         <v>15</v>
       </c>
       <c r="D351">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="352">
@@ -5068,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C357">
@@ -5120,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C361">
@@ -5185,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C366">
@@ -5250,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C371">
@@ -5289,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C374">
@@ -5328,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C377">
@@ -5374,7 +5373,7 @@
         <v>15</v>
       </c>
       <c r="D380">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="381">
@@ -5393,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C382">
@@ -5406,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C383">
@@ -5419,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C384">
@@ -5445,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C386">
@@ -5458,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C387">
@@ -5471,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C388">
@@ -5536,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C393">
@@ -5549,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C394">
@@ -5588,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C397">
@@ -5614,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C399">
@@ -5653,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C402">
@@ -5718,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C407">
@@ -5731,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C408">
@@ -5757,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C410">
@@ -5770,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C411">
@@ -5827,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C415">
@@ -5840,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C416">
@@ -5905,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C421">
@@ -5944,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C424">
@@ -5970,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C426">
@@ -6126,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C438">
@@ -6139,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C439">
@@ -6230,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C446">
@@ -6321,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C453">
@@ -6334,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C454">
@@ -6347,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C455">
@@ -6399,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C459">
@@ -6464,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C464">
@@ -6568,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C472">
@@ -6646,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C478">
@@ -6672,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C480">
@@ -6698,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C482">
@@ -6711,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C483">
@@ -6724,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C484">
@@ -6763,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C487">
@@ -6776,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C488">
@@ -6854,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C494">
@@ -6867,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C495">
@@ -6906,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C498">
@@ -6919,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C499">
@@ -7062,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C510">
@@ -7075,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C511">
@@ -7127,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C515">
@@ -7140,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C516">
@@ -7179,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C519">
@@ -7192,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C520">
@@ -7205,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C521">
@@ -7522,14 +7521,14 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C545">
         <v>15</v>
       </c>
       <c r="D545">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="546">
@@ -7548,7 +7547,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C547">
@@ -8406,7 +8405,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C613">
@@ -8491,7 +8490,7 @@
         <v>15</v>
       </c>
       <c r="D619">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="620">
@@ -8723,7 +8722,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C637">
@@ -8853,7 +8852,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C647">
@@ -8905,7 +8904,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C651">
@@ -8918,7 +8917,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C652">
@@ -9053,7 +9052,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C662">
@@ -9066,7 +9065,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C663">
@@ -9118,7 +9117,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C667">
@@ -9209,7 +9208,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C674">
@@ -9242,7 +9241,7 @@
         <v>15</v>
       </c>
       <c r="D676">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="677">
@@ -9377,13 +9376,13 @@
         <v>15</v>
       </c>
       <c r="D686">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C687">
@@ -9440,14 +9439,14 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C691">
         <v>15</v>
       </c>
       <c r="D691">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="692">
@@ -9531,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C698">
@@ -9544,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C699">
@@ -9583,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C702">
@@ -9596,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C703">
@@ -9622,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C705">
@@ -9635,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C706">
@@ -9648,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C707">
@@ -9674,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C709">
@@ -9687,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C710">
@@ -9700,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C711">
@@ -9726,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C713">
@@ -9739,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C714">
@@ -9856,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C723">
@@ -9895,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C726">
@@ -9921,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C728">
@@ -9934,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C729">
@@ -9947,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C730">
@@ -9973,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C732">
@@ -10584,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C779">
@@ -10597,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C780">
@@ -11026,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C813">
@@ -11195,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C826">
@@ -11260,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C831">
@@ -11345,7 +11344,7 @@
         <v>15</v>
       </c>
       <c r="D837">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="838">
@@ -11429,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C844">
@@ -11546,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C853">
@@ -11663,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C862">
@@ -11728,7 +11727,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C867">
@@ -11858,7 +11857,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C877">
@@ -12378,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C917">
@@ -12476,7 +12475,7 @@
         <v>15</v>
       </c>
       <c r="D924">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="925">
@@ -12573,7 +12572,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C932">
@@ -12586,7 +12585,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C933">
@@ -12599,7 +12598,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C934">
@@ -12612,7 +12611,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C935">
@@ -12625,7 +12624,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C936">
@@ -12638,7 +12637,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C937">
@@ -12664,7 +12663,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C939">
@@ -12677,7 +12676,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C940">
@@ -12703,7 +12702,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C942">
@@ -12716,7 +12715,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C943">
@@ -12729,7 +12728,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C944">
@@ -12742,7 +12741,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C945">
@@ -12755,7 +12754,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C946">
@@ -12794,7 +12793,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C949">
@@ -12872,7 +12871,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C955">
@@ -13053,7 +13052,7 @@
         <v>15</v>
       </c>
       <c r="D968">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="969">
@@ -13293,7 +13292,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C987">
@@ -13423,7 +13422,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C997">
@@ -13488,7 +13487,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1002">
@@ -13527,14 +13526,14 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1005">
         <v>15</v>
       </c>
       <c r="D1005">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="1006">
@@ -13592,7 +13591,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1010">
@@ -13865,7 +13864,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1031">
@@ -13904,7 +13903,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1034">
@@ -14008,7 +14007,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1042">
@@ -14021,7 +14020,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1043">
@@ -14047,7 +14046,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1045">
@@ -14073,7 +14072,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1047">
@@ -14086,7 +14085,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1048">
@@ -14138,7 +14137,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1052">
@@ -14255,7 +14254,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1061">
@@ -14320,7 +14319,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1066">
@@ -14372,7 +14371,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1070">
@@ -14507,7 +14506,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1080">
@@ -14520,7 +14519,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1081">
@@ -14572,7 +14571,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1085">
@@ -14585,7 +14584,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1086">
@@ -14624,7 +14623,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1089">
@@ -14663,7 +14662,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1092">
@@ -14894,7 +14893,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1109">
@@ -14946,7 +14945,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1113">
@@ -14972,7 +14971,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1115">
@@ -14998,7 +14997,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1117">
@@ -15037,7 +15036,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1120">
@@ -15244,7 +15243,7 @@
         <v>15</v>
       </c>
       <c r="D1135">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="1136">
@@ -15541,7 +15540,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1158">
@@ -15619,7 +15618,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1164">
@@ -15954,7 +15953,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1189">
@@ -15998,7 +15997,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1192">
@@ -16011,7 +16010,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1193">
@@ -16031,7 +16030,7 @@
         <v>15</v>
       </c>
       <c r="D1194">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="1195">
@@ -16102,7 +16101,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1200">
@@ -16167,7 +16166,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1205">
@@ -16180,7 +16179,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1206">
@@ -16317,7 +16316,7 @@
         <v>147</v>
       </c>
       <c r="D1216">
-        <v>0.009258676072305851</v>
+        <v>0.009258676072305853</v>
       </c>
     </row>
     <row r="1217">
@@ -16393,7 +16392,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1222">
@@ -16432,7 +16431,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1225">
@@ -16536,7 +16535,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1233">
@@ -16601,7 +16600,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1238">
@@ -16627,7 +16626,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1240">
@@ -16744,7 +16743,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1249">
@@ -16926,7 +16925,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1263">
@@ -16939,7 +16938,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1264">
@@ -16978,7 +16977,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1267">
@@ -16991,7 +16990,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1268">
@@ -17082,7 +17081,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1275">
@@ -17134,7 +17133,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1279">
@@ -17186,7 +17185,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1283">
@@ -17199,7 +17198,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1284">
@@ -17368,7 +17367,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1297">
@@ -17407,7 +17406,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1300">
@@ -17485,7 +17484,7 @@
     <row r="1306">
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1306">
@@ -17524,7 +17523,7 @@
     <row r="1309">
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1309">
@@ -17635,7 +17634,7 @@
         <v>15</v>
       </c>
       <c r="D1317">
-        <v>0.0009447628645210053</v>
+        <v>0.0009447628645210052</v>
       </c>
     </row>
     <row r="1318">
@@ -17888,7 +17887,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1337">
@@ -17901,7 +17900,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1338">
@@ -18327,7 +18326,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1370">
@@ -18353,7 +18352,7 @@
     <row r="1372">
       <c r="B1372" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1372">
@@ -18457,7 +18456,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1380">
@@ -18561,7 +18560,7 @@
     <row r="1388">
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1388">
@@ -18574,7 +18573,7 @@
     <row r="1389">
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1389">
@@ -18587,7 +18586,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1390">
@@ -18704,7 +18703,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1399">
@@ -18717,7 +18716,7 @@
     <row r="1400">
       <c r="B1400" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1400">
@@ -18730,7 +18729,7 @@
     <row r="1401">
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1401">
@@ -18769,7 +18768,7 @@
     <row r="1404">
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1404">
@@ -18842,41 +18841,6 @@
       </c>
       <c r="D1409">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
